--- a/tools/excel2js/in/y游戏集合.xlsx
+++ b/tools/excel2js/in/y游戏集合.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chessProject\tools\excel2json\in\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245"/>
   </bookViews>
   <sheets>
-    <sheet name=" Games" sheetId="1" r:id="rId1"/>
+    <sheet name="Games" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,7 +27,7 @@
     <author>tony</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1">
+    <comment ref="D3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,8 +222,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -297,6 +302,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -557,14 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
@@ -576,7 +589,7 @@
     <col min="8" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -628,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -654,7 +667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -690,12 +703,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
@@ -705,12 +718,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
